--- a/outputs/05-analisis-datos-2/tablas/balance_tables.xlsx
+++ b/outputs/05-analisis-datos-2/tablas/balance_tables.xlsx
@@ -90,25 +90,25 @@
     <t>[3]</t>
   </si>
   <si>
-    <t>2958</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2958</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2958</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2958</t>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3006</t>
   </si>
   <si>
     <t>[3]</t>
@@ -132,13 +132,337 @@
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>0.486</t>
-  </si>
-  <si>
-    <t>[0.006]</t>
-  </si>
-  <si>
-    <t>0.238</t>
+    <t>0.494</t>
+  </si>
+  <si>
+    <t>[0.012]</t>
+  </si>
+  <si>
+    <t>0.245</t>
+  </si>
+  <si>
+    <t>[0.013]</t>
+  </si>
+  <si>
+    <t>10.420</t>
+  </si>
+  <si>
+    <t>[0.062]</t>
+  </si>
+  <si>
+    <t>25.710</t>
+  </si>
+  <si>
+    <t>[0.061]</t>
+  </si>
+  <si>
+    <t>17.151</t>
+  </si>
+  <si>
+    <t>[0.181]</t>
+  </si>
+  <si>
+    <t>8.558</t>
+  </si>
+  <si>
+    <t>[0.239]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>N/[Clusters]</t>
+  </si>
+  <si>
+    <t>6108</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>6108</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3028</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3028</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3028</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3028</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>Contracts</t>
+  </si>
+  <si>
+    <t>Mean/SE</t>
+  </si>
+  <si>
+    <t>0.496</t>
+  </si>
+  <si>
+    <t>[0.012]</t>
+  </si>
+  <si>
+    <t>0.242</t>
+  </si>
+  <si>
+    <t>[0.016]</t>
+  </si>
+  <si>
+    <t>10.652</t>
+  </si>
+  <si>
+    <t>[0.047]</t>
+  </si>
+  <si>
+    <t>25.579</t>
+  </si>
+  <si>
+    <t>[0.207]</t>
+  </si>
+  <si>
+    <t>17.420</t>
+  </si>
+  <si>
+    <t>[0.129]</t>
+  </si>
+  <si>
+    <t>8.159</t>
+  </si>
+  <si>
+    <t>[0.136]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>N/[Clusters]</t>
+  </si>
+  <si>
+    <t>6096</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>6096</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3156</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3156</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3156</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3156</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Mean/SE</t>
+  </si>
+  <si>
+    <t>0.518</t>
+  </si>
+  <si>
+    <t>[0.002]</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>[0.009]</t>
+  </si>
+  <si>
+    <t>10.355</t>
+  </si>
+  <si>
+    <t>[0.129]</t>
+  </si>
+  <si>
+    <t>25.552</t>
+  </si>
+  <si>
+    <t>[0.153]</t>
+  </si>
+  <si>
+    <t>17.183</t>
+  </si>
+  <si>
+    <t>[0.042]</t>
+  </si>
+  <si>
+    <t>8.369</t>
+  </si>
+  <si>
+    <t>[0.126]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>N/[Clusters]</t>
+  </si>
+  <si>
+    <t>6120</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>6120</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2986</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2986</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2986</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2986</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(4)</t>
+  </si>
+  <si>
+    <t>Info + Contracts</t>
+  </si>
+  <si>
+    <t>Mean/SE</t>
+  </si>
+  <si>
+    <t>0.488</t>
+  </si>
+  <si>
+    <t>[0.003]</t>
+  </si>
+  <si>
+    <t>0.242</t>
   </si>
   <si>
     <t>[0.005]</t>
@@ -147,349 +471,25 @@
     <t>10.476</t>
   </si>
   <si>
-    <t>[0.037]</t>
-  </si>
-  <si>
-    <t>25.491</t>
-  </si>
-  <si>
-    <t>[0.069]</t>
-  </si>
-  <si>
-    <t>17.533</t>
-  </si>
-  <si>
-    <t>[0.180]</t>
-  </si>
-  <si>
-    <t>7.958</t>
-  </si>
-  <si>
-    <t>[0.180]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>N/[Clusters]</t>
-  </si>
-  <si>
-    <t>6108</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>6108</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2988</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2988</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2988</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2988</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(2)</t>
-  </si>
-  <si>
-    <t>Contracts</t>
-  </si>
-  <si>
-    <t>Mean/SE</t>
-  </si>
-  <si>
-    <t>0.489</t>
-  </si>
-  <si>
-    <t>[0.004]</t>
-  </si>
-  <si>
-    <t>0.227</t>
-  </si>
-  <si>
-    <t>[0.003]</t>
-  </si>
-  <si>
-    <t>10.416</t>
-  </si>
-  <si>
-    <t>[0.015]</t>
-  </si>
-  <si>
-    <t>25.566</t>
-  </si>
-  <si>
-    <t>[0.113]</t>
-  </si>
-  <si>
-    <t>17.303</t>
-  </si>
-  <si>
-    <t>[0.187]</t>
-  </si>
-  <si>
-    <t>8.263</t>
-  </si>
-  <si>
-    <t>[0.130]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>N/[Clusters]</t>
-  </si>
-  <si>
-    <t>6096</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>6096</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2944</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2944</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2944</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2944</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(3)</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Mean/SE</t>
-  </si>
-  <si>
-    <t>0.483</t>
-  </si>
-  <si>
-    <t>[0.010]</t>
-  </si>
-  <si>
-    <t>0.240</t>
-  </si>
-  <si>
-    <t>[0.009]</t>
-  </si>
-  <si>
-    <t>10.710</t>
-  </si>
-  <si>
-    <t>[0.168]</t>
-  </si>
-  <si>
-    <t>25.289</t>
-  </si>
-  <si>
-    <t>[0.145]</t>
-  </si>
-  <si>
-    <t>17.351</t>
-  </si>
-  <si>
-    <t>[0.068]</t>
-  </si>
-  <si>
-    <t>7.938</t>
-  </si>
-  <si>
-    <t>[0.201]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>N/[Clusters]</t>
-  </si>
-  <si>
-    <t>6120</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>6120</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3098</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3098</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3098</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3098</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(4)</t>
-  </si>
-  <si>
-    <t>Info + Contracts</t>
-  </si>
-  <si>
-    <t>Mean/SE</t>
-  </si>
-  <si>
-    <t>0.506</t>
-  </si>
-  <si>
-    <t>[0.005]</t>
-  </si>
-  <si>
-    <t>0.255</t>
-  </si>
-  <si>
-    <t>[0.002]</t>
-  </si>
-  <si>
-    <t>10.482</t>
-  </si>
-  <si>
-    <t>[0.111]</t>
-  </si>
-  <si>
-    <t>25.294</t>
-  </si>
-  <si>
-    <t>[0.094]</t>
-  </si>
-  <si>
-    <t>17.204</t>
-  </si>
-  <si>
-    <t>[0.068]</t>
-  </si>
-  <si>
-    <t>8.090</t>
-  </si>
-  <si>
-    <t>[0.070]</t>
+    <t>[0.097]</t>
+  </si>
+  <si>
+    <t>25.633</t>
+  </si>
+  <si>
+    <t>[0.230]</t>
+  </si>
+  <si>
+    <t>17.648</t>
+  </si>
+  <si>
+    <t>[0.117]</t>
+  </si>
+  <si>
+    <t>7.985</t>
+  </si>
+  <si>
+    <t>[0.149]</t>
   </si>
   <si>
     <t/>
@@ -510,37 +510,37 @@
     <t>(1)-(2)</t>
   </si>
   <si>
-    <t>-0.003</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.011*</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.060</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.075</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.230</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.305</t>
+    <t>-0.002</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.232**</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.130</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.269</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.399</t>
   </si>
   <si>
     <t/>
@@ -564,37 +564,91 @@
     <t>(1)-(3)</t>
   </si>
   <si>
+    <t>-0.024*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.006</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.157</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.032</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.189</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>t-test</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>(1)-(4)</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>0.003</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>-0.001</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.234</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.202</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.182</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.020</t>
+    <t>-0.056</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.496**</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.573*</t>
   </si>
   <si>
     <t/>
@@ -615,40 +669,40 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>(1)-(4)</t>
-  </si>
-  <si>
-    <t>-0.020**</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.017**</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.007</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.197</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.329</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.132</t>
+    <t>(2)-(3)</t>
+  </si>
+  <si>
+    <t>-0.022</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.009</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.296*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.237</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.210</t>
   </si>
   <si>
     <t/>
@@ -669,40 +723,40 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>(2)-(3)</t>
-  </si>
-  <si>
-    <t>0.006</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.013</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.294</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.277</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.049</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.325</t>
+    <t>(2)-(4)</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.175</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.053</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.227</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.174</t>
   </si>
   <si>
     <t/>
@@ -723,94 +777,40 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>(2)-(4)</t>
-  </si>
-  <si>
-    <t>-0.017**</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.028***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.067</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.271*</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.098</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.173</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
     <t>(3)-(4)</t>
   </si>
   <si>
-    <t>-0.023*</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.015</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.228</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.005</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.147</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.152</t>
+    <t>0.030***</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.121</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.081</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.465***</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.384*</t>
   </si>
   <si>
     <t/>

--- a/outputs/05-analisis-datos-2/tablas/balance_tables.xlsx
+++ b/outputs/05-analisis-datos-2/tablas/balance_tables.xlsx
@@ -78,37 +78,37 @@
     <t>N/[Clusters]</t>
   </si>
   <si>
-    <t>6084</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>6084</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3006</t>
+    <t>6096</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>6096</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3032</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3032</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3032</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3032</t>
   </si>
   <si>
     <t>[3]</t>
@@ -132,40 +132,40 @@
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>0.494</t>
-  </si>
-  <si>
-    <t>[0.012]</t>
-  </si>
-  <si>
-    <t>0.245</t>
-  </si>
-  <si>
-    <t>[0.013]</t>
-  </si>
-  <si>
-    <t>10.420</t>
-  </si>
-  <si>
-    <t>[0.062]</t>
-  </si>
-  <si>
-    <t>25.710</t>
-  </si>
-  <si>
-    <t>[0.061]</t>
-  </si>
-  <si>
-    <t>17.151</t>
-  </si>
-  <si>
-    <t>[0.181]</t>
-  </si>
-  <si>
-    <t>8.558</t>
-  </si>
-  <si>
-    <t>[0.239]</t>
+    <t>0.497</t>
+  </si>
+  <si>
+    <t>[0.006]</t>
+  </si>
+  <si>
+    <t>0.258</t>
+  </si>
+  <si>
+    <t>[0.011]</t>
+  </si>
+  <si>
+    <t>10.495</t>
+  </si>
+  <si>
+    <t>[0.100]</t>
+  </si>
+  <si>
+    <t>25.223</t>
+  </si>
+  <si>
+    <t>[0.123]</t>
+  </si>
+  <si>
+    <t>17.085</t>
+  </si>
+  <si>
+    <t>[0.234]</t>
+  </si>
+  <si>
+    <t>8.138</t>
+  </si>
+  <si>
+    <t>[0.335]</t>
   </si>
   <si>
     <t/>
@@ -186,6 +186,114 @@
     <t>N/[Clusters]</t>
   </si>
   <si>
+    <t>6096</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>6096</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>Contracts</t>
+  </si>
+  <si>
+    <t>Mean/SE</t>
+  </si>
+  <si>
+    <t>0.497</t>
+  </si>
+  <si>
+    <t>[0.011]</t>
+  </si>
+  <si>
+    <t>0.246</t>
+  </si>
+  <si>
+    <t>[0.006]</t>
+  </si>
+  <si>
+    <t>10.281</t>
+  </si>
+  <si>
+    <t>[0.059]</t>
+  </si>
+  <si>
+    <t>25.890</t>
+  </si>
+  <si>
+    <t>[0.495]</t>
+  </si>
+  <si>
+    <t>17.501</t>
+  </si>
+  <si>
+    <t>[0.398]</t>
+  </si>
+  <si>
+    <t>8.389</t>
+  </si>
+  <si>
+    <t>[0.155]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>N/[Clusters]</t>
+  </si>
+  <si>
     <t>6108</t>
   </si>
   <si>
@@ -198,298 +306,190 @@
     <t>[3]</t>
   </si>
   <si>
-    <t>3028</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3028</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3028</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3028</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(2)</t>
-  </si>
-  <si>
-    <t>Contracts</t>
+    <t>3144</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3144</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3144</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3144</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>Information</t>
   </si>
   <si>
     <t>Mean/SE</t>
   </si>
   <si>
+    <t>0.515</t>
+  </si>
+  <si>
+    <t>[0.002]</t>
+  </si>
+  <si>
+    <t>0.263</t>
+  </si>
+  <si>
+    <t>[0.009]</t>
+  </si>
+  <si>
+    <t>10.505</t>
+  </si>
+  <si>
+    <t>[0.063]</t>
+  </si>
+  <si>
+    <t>25.609</t>
+  </si>
+  <si>
+    <t>[0.351]</t>
+  </si>
+  <si>
+    <t>17.207</t>
+  </si>
+  <si>
+    <t>[0.277]</t>
+  </si>
+  <si>
+    <t>8.401</t>
+  </si>
+  <si>
+    <t>[0.074]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>N/[Clusters]</t>
+  </si>
+  <si>
+    <t>6108</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>6108</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(4)</t>
+  </si>
+  <si>
+    <t>Info + Contracts</t>
+  </si>
+  <si>
+    <t>Mean/SE</t>
+  </si>
+  <si>
     <t>0.496</t>
   </si>
   <si>
-    <t>[0.012]</t>
-  </si>
-  <si>
-    <t>0.242</t>
-  </si>
-  <si>
-    <t>[0.016]</t>
-  </si>
-  <si>
-    <t>10.652</t>
-  </si>
-  <si>
-    <t>[0.047]</t>
-  </si>
-  <si>
-    <t>25.579</t>
-  </si>
-  <si>
-    <t>[0.207]</t>
-  </si>
-  <si>
-    <t>17.420</t>
-  </si>
-  <si>
-    <t>[0.129]</t>
-  </si>
-  <si>
-    <t>8.159</t>
-  </si>
-  <si>
-    <t>[0.136]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>N/[Clusters]</t>
-  </si>
-  <si>
-    <t>6096</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>6096</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3156</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3156</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3156</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3156</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(3)</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Mean/SE</t>
-  </si>
-  <si>
-    <t>0.518</t>
-  </si>
-  <si>
-    <t>[0.002]</t>
+    <t>[0.001]</t>
   </si>
   <si>
     <t>0.251</t>
   </si>
   <si>
-    <t>[0.009]</t>
-  </si>
-  <si>
-    <t>10.355</t>
-  </si>
-  <si>
-    <t>[0.129]</t>
-  </si>
-  <si>
-    <t>25.552</t>
-  </si>
-  <si>
-    <t>[0.153]</t>
-  </si>
-  <si>
-    <t>17.183</t>
-  </si>
-  <si>
-    <t>[0.042]</t>
-  </si>
-  <si>
-    <t>8.369</t>
-  </si>
-  <si>
-    <t>[0.126]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>N/[Clusters]</t>
-  </si>
-  <si>
-    <t>6120</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>6120</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2986</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2986</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2986</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2986</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(4)</t>
-  </si>
-  <si>
-    <t>Info + Contracts</t>
-  </si>
-  <si>
-    <t>Mean/SE</t>
-  </si>
-  <si>
-    <t>0.488</t>
-  </si>
-  <si>
-    <t>[0.003]</t>
-  </si>
-  <si>
-    <t>0.242</t>
-  </si>
-  <si>
-    <t>[0.005]</t>
-  </si>
-  <si>
-    <t>10.476</t>
-  </si>
-  <si>
-    <t>[0.097]</t>
-  </si>
-  <si>
-    <t>25.633</t>
-  </si>
-  <si>
-    <t>[0.230]</t>
-  </si>
-  <si>
-    <t>17.648</t>
-  </si>
-  <si>
-    <t>[0.117]</t>
-  </si>
-  <si>
-    <t>7.985</t>
-  </si>
-  <si>
-    <t>[0.149]</t>
+    <t>[0.006]</t>
+  </si>
+  <si>
+    <t>10.539</t>
+  </si>
+  <si>
+    <t>[0.100]</t>
+  </si>
+  <si>
+    <t>25.585</t>
+  </si>
+  <si>
+    <t>[0.394]</t>
+  </si>
+  <si>
+    <t>17.606</t>
+  </si>
+  <si>
+    <t>[0.197]</t>
+  </si>
+  <si>
+    <t>7.979</t>
+  </si>
+  <si>
+    <t>[0.236]</t>
   </si>
   <si>
     <t/>
@@ -510,37 +510,37 @@
     <t>(1)-(2)</t>
   </si>
   <si>
-    <t>-0.002</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.003</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.232**</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.130</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.269</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.399</t>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.214*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.667</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.416</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.251</t>
   </si>
   <si>
     <t/>
@@ -564,37 +564,37 @@
     <t>(1)-(3)</t>
   </si>
   <si>
-    <t>-0.024*</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.006</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.065</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.157</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.032</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.189</t>
+    <t>-0.017**</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.005</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.011</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.386</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.123</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.263</t>
   </si>
   <si>
     <t/>
@@ -618,37 +618,37 @@
     <t>(1)-(4)</t>
   </si>
   <si>
-    <t>0.006</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.003</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.056</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.077</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.496**</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.573*</t>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.044</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.362</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.521</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.159</t>
   </si>
   <si>
     <t/>
@@ -672,37 +672,37 @@
     <t>(2)-(3)</t>
   </si>
   <si>
-    <t>-0.022</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.009</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.296*</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.027</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.237</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.210</t>
+    <t>-0.018</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.017</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.224**</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.282</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.294</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.012</t>
   </si>
   <si>
     <t/>
@@ -726,37 +726,37 @@
     <t>(2)-(4)</t>
   </si>
   <si>
-    <t>0.008</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.000</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.175</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.053</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.227</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.174</t>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.005</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.258*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.306</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.105</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.410</t>
   </si>
   <si>
     <t/>
@@ -780,37 +780,37 @@
     <t>(3)-(4)</t>
   </si>
   <si>
-    <t>0.030***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.009</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.121</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.081</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.465***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.384*</t>
+    <t>0.019***</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.034</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.398</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.422</t>
   </si>
   <si>
     <t/>

--- a/outputs/05-analisis-datos-2/tablas/balance_tables.xlsx
+++ b/outputs/05-analisis-datos-2/tablas/balance_tables.xlsx
@@ -78,6 +78,222 @@
     <t>N/[Clusters]</t>
   </si>
   <si>
+    <t>6084</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>6084</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Mean/SE</t>
+  </si>
+  <si>
+    <t>0.494</t>
+  </si>
+  <si>
+    <t>[0.012]</t>
+  </si>
+  <si>
+    <t>0.245</t>
+  </si>
+  <si>
+    <t>[0.013]</t>
+  </si>
+  <si>
+    <t>10.420</t>
+  </si>
+  <si>
+    <t>[0.062]</t>
+  </si>
+  <si>
+    <t>25.710</t>
+  </si>
+  <si>
+    <t>[0.061]</t>
+  </si>
+  <si>
+    <t>17.151</t>
+  </si>
+  <si>
+    <t>[0.181]</t>
+  </si>
+  <si>
+    <t>8.558</t>
+  </si>
+  <si>
+    <t>[0.239]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>N/[Clusters]</t>
+  </si>
+  <si>
+    <t>6108</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>6108</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3028</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3028</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3028</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3028</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>Contracts</t>
+  </si>
+  <si>
+    <t>Mean/SE</t>
+  </si>
+  <si>
+    <t>0.496</t>
+  </si>
+  <si>
+    <t>[0.012]</t>
+  </si>
+  <si>
+    <t>0.242</t>
+  </si>
+  <si>
+    <t>[0.016]</t>
+  </si>
+  <si>
+    <t>10.652</t>
+  </si>
+  <si>
+    <t>[0.047]</t>
+  </si>
+  <si>
+    <t>25.579</t>
+  </si>
+  <si>
+    <t>[0.207]</t>
+  </si>
+  <si>
+    <t>17.420</t>
+  </si>
+  <si>
+    <t>[0.129]</t>
+  </si>
+  <si>
+    <t>8.159</t>
+  </si>
+  <si>
+    <t>[0.136]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>N/[Clusters]</t>
+  </si>
+  <si>
     <t>6096</t>
   </si>
   <si>
@@ -90,82 +306,82 @@
     <t>[3]</t>
   </si>
   <si>
-    <t>3032</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3032</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3032</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3032</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(1)</t>
-  </si>
-  <si>
-    <t>Control</t>
+    <t>3156</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3156</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3156</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3156</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>Information</t>
   </si>
   <si>
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>0.497</t>
-  </si>
-  <si>
-    <t>[0.006]</t>
-  </si>
-  <si>
-    <t>0.258</t>
-  </si>
-  <si>
-    <t>[0.011]</t>
-  </si>
-  <si>
-    <t>10.495</t>
-  </si>
-  <si>
-    <t>[0.100]</t>
-  </si>
-  <si>
-    <t>25.223</t>
-  </si>
-  <si>
-    <t>[0.123]</t>
-  </si>
-  <si>
-    <t>17.085</t>
-  </si>
-  <si>
-    <t>[0.234]</t>
-  </si>
-  <si>
-    <t>8.138</t>
-  </si>
-  <si>
-    <t>[0.335]</t>
+    <t>0.518</t>
+  </si>
+  <si>
+    <t>[0.002]</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>[0.009]</t>
+  </si>
+  <si>
+    <t>10.355</t>
+  </si>
+  <si>
+    <t>[0.129]</t>
+  </si>
+  <si>
+    <t>25.552</t>
+  </si>
+  <si>
+    <t>[0.153]</t>
+  </si>
+  <si>
+    <t>17.183</t>
+  </si>
+  <si>
+    <t>[0.042]</t>
+  </si>
+  <si>
+    <t>8.369</t>
+  </si>
+  <si>
+    <t>[0.126]</t>
   </si>
   <si>
     <t/>
@@ -186,310 +402,94 @@
     <t>N/[Clusters]</t>
   </si>
   <si>
-    <t>6096</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>6096</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3030</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3030</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3030</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3030</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(2)</t>
-  </si>
-  <si>
-    <t>Contracts</t>
+    <t>6120</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>6120</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2986</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2986</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2986</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2986</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(4)</t>
+  </si>
+  <si>
+    <t>Info + Contracts</t>
   </si>
   <si>
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>0.497</t>
-  </si>
-  <si>
-    <t>[0.011]</t>
-  </si>
-  <si>
-    <t>0.246</t>
-  </si>
-  <si>
-    <t>[0.006]</t>
-  </si>
-  <si>
-    <t>10.281</t>
-  </si>
-  <si>
-    <t>[0.059]</t>
-  </si>
-  <si>
-    <t>25.890</t>
-  </si>
-  <si>
-    <t>[0.495]</t>
-  </si>
-  <si>
-    <t>17.501</t>
-  </si>
-  <si>
-    <t>[0.398]</t>
-  </si>
-  <si>
-    <t>8.389</t>
-  </si>
-  <si>
-    <t>[0.155]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>N/[Clusters]</t>
-  </si>
-  <si>
-    <t>6108</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>6108</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3144</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3144</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3144</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3144</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(3)</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Mean/SE</t>
-  </si>
-  <si>
-    <t>0.515</t>
-  </si>
-  <si>
-    <t>[0.002]</t>
-  </si>
-  <si>
-    <t>0.263</t>
-  </si>
-  <si>
-    <t>[0.009]</t>
-  </si>
-  <si>
-    <t>10.505</t>
-  </si>
-  <si>
-    <t>[0.063]</t>
-  </si>
-  <si>
-    <t>25.609</t>
-  </si>
-  <si>
-    <t>[0.351]</t>
-  </si>
-  <si>
-    <t>17.207</t>
-  </si>
-  <si>
-    <t>[0.277]</t>
-  </si>
-  <si>
-    <t>8.401</t>
-  </si>
-  <si>
-    <t>[0.074]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>N/[Clusters]</t>
-  </si>
-  <si>
-    <t>6108</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>6108</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3030</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3030</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3030</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3030</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(4)</t>
-  </si>
-  <si>
-    <t>Info + Contracts</t>
-  </si>
-  <si>
-    <t>Mean/SE</t>
-  </si>
-  <si>
-    <t>0.496</t>
-  </si>
-  <si>
-    <t>[0.001]</t>
-  </si>
-  <si>
-    <t>0.251</t>
-  </si>
-  <si>
-    <t>[0.006]</t>
-  </si>
-  <si>
-    <t>10.539</t>
-  </si>
-  <si>
-    <t>[0.100]</t>
-  </si>
-  <si>
-    <t>25.585</t>
-  </si>
-  <si>
-    <t>[0.394]</t>
-  </si>
-  <si>
-    <t>17.606</t>
-  </si>
-  <si>
-    <t>[0.197]</t>
-  </si>
-  <si>
-    <t>7.979</t>
-  </si>
-  <si>
-    <t>[0.236]</t>
+    <t>0.488</t>
+  </si>
+  <si>
+    <t>[0.003]</t>
+  </si>
+  <si>
+    <t>0.242</t>
+  </si>
+  <si>
+    <t>[0.005]</t>
+  </si>
+  <si>
+    <t>10.476</t>
+  </si>
+  <si>
+    <t>[0.097]</t>
+  </si>
+  <si>
+    <t>25.633</t>
+  </si>
+  <si>
+    <t>[0.230]</t>
+  </si>
+  <si>
+    <t>17.648</t>
+  </si>
+  <si>
+    <t>[0.117]</t>
+  </si>
+  <si>
+    <t>7.985</t>
+  </si>
+  <si>
+    <t>[0.149]</t>
   </si>
   <si>
     <t/>
@@ -510,37 +510,253 @@
     <t>(1)-(2)</t>
   </si>
   <si>
+    <t>-0.002</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.232**</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.130</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.269</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.399</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>t-test</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>(1)-(3)</t>
+  </si>
+  <si>
+    <t>-0.024*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.006</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.157</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.032</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.189</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>t-test</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>(1)-(4)</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.056</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.496**</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.573*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>t-test</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>(2)-(3)</t>
+  </si>
+  <si>
+    <t>-0.022</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.009</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.296*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.237</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.210</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>t-test</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>(2)-(4)</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>0.000</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0.012</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.214*</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.667</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.416</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.251</t>
+    <t>0.175</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.053</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.227</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.174</t>
   </si>
   <si>
     <t/>
@@ -561,256 +777,40 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>(1)-(3)</t>
-  </si>
-  <si>
-    <t>-0.017**</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.005</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.011</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.386</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.123</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.263</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>(1)-(4)</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.007</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.044</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.362</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.521</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.159</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>(2)-(3)</t>
-  </si>
-  <si>
-    <t>-0.018</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.017</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.224**</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.282</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.294</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.012</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>(2)-(4)</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.005</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.258*</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.306</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.105</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.410</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
     <t>(3)-(4)</t>
   </si>
   <si>
-    <t>0.019***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.012</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.034</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.024</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.398</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.422</t>
+    <t>0.030***</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.121</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.081</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.465***</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.384*</t>
   </si>
   <si>
     <t/>

--- a/outputs/05-analisis-datos-2/tablas/balance_tables.xlsx
+++ b/outputs/05-analisis-datos-2/tablas/balance_tables.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
   <si>
     <t/>
   </si>
@@ -60,6 +60,12 @@
     <t/>
   </si>
   <si>
+    <t>Ingreso por plot season crop</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>The value displayed for t-tests are the differences in the means across the groups.</t>
   </si>
   <si>
@@ -90,25 +96,31 @@
     <t>[3]</t>
   </si>
   <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3006</t>
+    <t>2958</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2958</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2958</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2958</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>1455</t>
   </si>
   <si>
     <t>[3]</t>
@@ -132,40 +144,46 @@
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>0.494</t>
-  </si>
-  <si>
-    <t>[0.012]</t>
-  </si>
-  <si>
-    <t>0.245</t>
-  </si>
-  <si>
-    <t>[0.013]</t>
-  </si>
-  <si>
-    <t>10.420</t>
-  </si>
-  <si>
-    <t>[0.062]</t>
-  </si>
-  <si>
-    <t>25.710</t>
-  </si>
-  <si>
-    <t>[0.061]</t>
-  </si>
-  <si>
-    <t>17.151</t>
-  </si>
-  <si>
-    <t>[0.181]</t>
-  </si>
-  <si>
-    <t>8.558</t>
-  </si>
-  <si>
-    <t>[0.239]</t>
+    <t>0.486</t>
+  </si>
+  <si>
+    <t>[0.006]</t>
+  </si>
+  <si>
+    <t>0.238</t>
+  </si>
+  <si>
+    <t>[0.005]</t>
+  </si>
+  <si>
+    <t>10.476</t>
+  </si>
+  <si>
+    <t>[0.037]</t>
+  </si>
+  <si>
+    <t>25.491</t>
+  </si>
+  <si>
+    <t>[0.069]</t>
+  </si>
+  <si>
+    <t>17.533</t>
+  </si>
+  <si>
+    <t>[0.180]</t>
+  </si>
+  <si>
+    <t>7.958</t>
+  </si>
+  <si>
+    <t>[0.180]</t>
+  </si>
+  <si>
+    <t>125.171</t>
+  </si>
+  <si>
+    <t>[4.957]</t>
   </si>
   <si>
     <t/>
@@ -198,25 +216,31 @@
     <t>[3]</t>
   </si>
   <si>
-    <t>3028</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3028</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3028</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3028</t>
+    <t>2988</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2988</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2988</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2988</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>1496</t>
   </si>
   <si>
     <t>[3]</t>
@@ -240,40 +264,46 @@
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>0.496</t>
-  </si>
-  <si>
-    <t>[0.012]</t>
-  </si>
-  <si>
-    <t>0.242</t>
-  </si>
-  <si>
-    <t>[0.016]</t>
-  </si>
-  <si>
-    <t>10.652</t>
-  </si>
-  <si>
-    <t>[0.047]</t>
-  </si>
-  <si>
-    <t>25.579</t>
-  </si>
-  <si>
-    <t>[0.207]</t>
-  </si>
-  <si>
-    <t>17.420</t>
-  </si>
-  <si>
-    <t>[0.129]</t>
-  </si>
-  <si>
-    <t>8.159</t>
-  </si>
-  <si>
-    <t>[0.136]</t>
+    <t>0.489</t>
+  </si>
+  <si>
+    <t>[0.004]</t>
+  </si>
+  <si>
+    <t>0.227</t>
+  </si>
+  <si>
+    <t>[0.003]</t>
+  </si>
+  <si>
+    <t>10.416</t>
+  </si>
+  <si>
+    <t>[0.015]</t>
+  </si>
+  <si>
+    <t>25.566</t>
+  </si>
+  <si>
+    <t>[0.113]</t>
+  </si>
+  <si>
+    <t>17.303</t>
+  </si>
+  <si>
+    <t>[0.187]</t>
+  </si>
+  <si>
+    <t>8.263</t>
+  </si>
+  <si>
+    <t>[0.130]</t>
+  </si>
+  <si>
+    <t>132.724</t>
+  </si>
+  <si>
+    <t>[1.429]</t>
   </si>
   <si>
     <t/>
@@ -306,25 +336,31 @@
     <t>[3]</t>
   </si>
   <si>
-    <t>3156</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3156</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3156</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3156</t>
+    <t>2944</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2944</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2944</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2944</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>1442</t>
   </si>
   <si>
     <t>[3]</t>
@@ -348,148 +384,166 @@
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>0.518</t>
+    <t>0.483</t>
+  </si>
+  <si>
+    <t>[0.010]</t>
+  </si>
+  <si>
+    <t>0.240</t>
+  </si>
+  <si>
+    <t>[0.009]</t>
+  </si>
+  <si>
+    <t>10.710</t>
+  </si>
+  <si>
+    <t>[0.168]</t>
+  </si>
+  <si>
+    <t>25.289</t>
+  </si>
+  <si>
+    <t>[0.145]</t>
+  </si>
+  <si>
+    <t>17.351</t>
+  </si>
+  <si>
+    <t>[0.068]</t>
+  </si>
+  <si>
+    <t>7.938</t>
+  </si>
+  <si>
+    <t>[0.201]</t>
+  </si>
+  <si>
+    <t>126.690</t>
+  </si>
+  <si>
+    <t>[1.972]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>N/[Clusters]</t>
+  </si>
+  <si>
+    <t>6120</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>6120</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3098</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3098</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3098</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3098</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>1532</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(4)</t>
+  </si>
+  <si>
+    <t>Info + Contracts</t>
+  </si>
+  <si>
+    <t>Mean/SE</t>
+  </si>
+  <si>
+    <t>0.506</t>
+  </si>
+  <si>
+    <t>[0.005]</t>
+  </si>
+  <si>
+    <t>0.255</t>
   </si>
   <si>
     <t>[0.002]</t>
   </si>
   <si>
-    <t>0.251</t>
-  </si>
-  <si>
-    <t>[0.009]</t>
-  </si>
-  <si>
-    <t>10.355</t>
-  </si>
-  <si>
-    <t>[0.129]</t>
-  </si>
-  <si>
-    <t>25.552</t>
-  </si>
-  <si>
-    <t>[0.153]</t>
-  </si>
-  <si>
-    <t>17.183</t>
-  </si>
-  <si>
-    <t>[0.042]</t>
-  </si>
-  <si>
-    <t>8.369</t>
-  </si>
-  <si>
-    <t>[0.126]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>N/[Clusters]</t>
-  </si>
-  <si>
-    <t>6120</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>6120</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2986</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2986</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2986</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2986</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(4)</t>
-  </si>
-  <si>
-    <t>Info + Contracts</t>
-  </si>
-  <si>
-    <t>Mean/SE</t>
-  </si>
-  <si>
-    <t>0.488</t>
-  </si>
-  <si>
-    <t>[0.003]</t>
-  </si>
-  <si>
-    <t>0.242</t>
-  </si>
-  <si>
-    <t>[0.005]</t>
-  </si>
-  <si>
-    <t>10.476</t>
-  </si>
-  <si>
-    <t>[0.097]</t>
-  </si>
-  <si>
-    <t>25.633</t>
-  </si>
-  <si>
-    <t>[0.230]</t>
-  </si>
-  <si>
-    <t>17.648</t>
-  </si>
-  <si>
-    <t>[0.117]</t>
-  </si>
-  <si>
-    <t>7.985</t>
-  </si>
-  <si>
-    <t>[0.149]</t>
+    <t>10.482</t>
+  </si>
+  <si>
+    <t>[0.111]</t>
+  </si>
+  <si>
+    <t>25.294</t>
+  </si>
+  <si>
+    <t>[0.094]</t>
+  </si>
+  <si>
+    <t>17.204</t>
+  </si>
+  <si>
+    <t>[0.068]</t>
+  </si>
+  <si>
+    <t>8.090</t>
+  </si>
+  <si>
+    <t>[0.070]</t>
+  </si>
+  <si>
+    <t>131.861</t>
+  </si>
+  <si>
+    <t>[2.125]</t>
   </si>
   <si>
     <t/>
@@ -510,10 +564,64 @@
     <t>(1)-(2)</t>
   </si>
   <si>
-    <t>-0.002</t>
-  </si>
-  <si>
-    <t/>
+    <t>-0.003</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.011*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.060</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.075</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.230</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.305</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-7.553</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>t-test</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>(1)-(3)</t>
   </si>
   <si>
     <t>0.003</t>
@@ -522,25 +630,37 @@
     <t/>
   </si>
   <si>
-    <t>-0.232**</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.130</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.269</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.399</t>
+    <t>-0.001</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.234</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.202</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.182</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.020</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-1.519</t>
   </si>
   <si>
     <t/>
@@ -561,40 +681,46 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>(1)-(3)</t>
-  </si>
-  <si>
-    <t>-0.024*</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.006</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.065</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.157</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.032</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.189</t>
+    <t>(1)-(4)</t>
+  </si>
+  <si>
+    <t>-0.020**</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.017**</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.007</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.329</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.132</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-6.690</t>
   </si>
   <si>
     <t/>
@@ -615,7 +741,7 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>(1)-(4)</t>
+    <t>(2)-(3)</t>
   </si>
   <si>
     <t>0.006</t>
@@ -624,31 +750,37 @@
     <t/>
   </si>
   <si>
-    <t>0.003</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.056</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.077</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.496**</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.573*</t>
+    <t>-0.013</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.294</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.277</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.049</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.325</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>6.034**</t>
   </si>
   <si>
     <t/>
@@ -669,40 +801,46 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>(2)-(3)</t>
-  </si>
-  <si>
-    <t>-0.022</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.009</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.296*</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.027</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.237</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.210</t>
+    <t>(2)-(4)</t>
+  </si>
+  <si>
+    <t>-0.017**</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.028***</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.067</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.271*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.098</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.173</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.863</t>
   </si>
   <si>
     <t/>
@@ -723,94 +861,46 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>(2)-(4)</t>
-  </si>
-  <si>
-    <t>0.008</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.000</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.175</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.053</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.227</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.174</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
     <t>(3)-(4)</t>
   </si>
   <si>
-    <t>0.030***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.009</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.121</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.081</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.465***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.384*</t>
+    <t>-0.023*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.015</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.228</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.005</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.147</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.152</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-5.171</t>
   </si>
   <si>
     <t/>
@@ -866,7 +956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O20"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -874,46 +964,46 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="H1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="I1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J1" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="K1" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L1" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="M1" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="N1" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="O1" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2">
@@ -921,46 +1011,46 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="J2" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="K2" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="L2" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="M2" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="N2" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="O2" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3">
@@ -968,46 +1058,46 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="J3" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="K3" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="L3" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="M3" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="N3" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="O3" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4">
@@ -1015,46 +1105,46 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="I4" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J4" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="K4" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="L4" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="M4" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="N4" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="O4" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5">
@@ -1062,46 +1152,46 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="I5" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="J5" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="K5" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="L5" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="M5" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="N5" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="O5" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6">
@@ -1109,46 +1199,46 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H6" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="J6" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="K6" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="L6" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M6" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="N6" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="O6" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7">
@@ -1156,46 +1246,46 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="H7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="I7" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="J7" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="K7" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="L7" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="M7" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="N7" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="O7" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8">
@@ -1203,46 +1293,46 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="I8" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J8" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="K8" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="L8" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="M8" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="N8" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="O8" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9">
@@ -1250,46 +1340,46 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="I9" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="J9" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="K9" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="L9" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="M9" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="N9" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="O9" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10">
@@ -1297,46 +1387,46 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="I10" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="J10" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="K10" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="L10" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="M10" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="N10" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="O10" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11">
@@ -1344,46 +1434,46 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="H11" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="I11" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="J11" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="K11" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="L11" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="M11" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="N11" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="O11" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12">
@@ -1391,46 +1481,46 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H12" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="I12" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="J12" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="K12" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="L12" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="M12" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="N12" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="O12" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13">
@@ -1438,46 +1528,46 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="I13" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="J13" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="K13" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="L13" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="M13" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="N13" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="O13" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14">
@@ -1485,46 +1575,46 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G14" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="H14" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="J14" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="K14" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="L14" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="M14" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="N14" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="O14" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15">
@@ -1532,46 +1622,46 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G15" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="J15" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="K15" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L15" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="M15" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="N15" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="O15" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16">
@@ -1579,46 +1669,46 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="J16" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="K16" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="L16" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="M16" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="N16" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="O16" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17">
@@ -1626,46 +1716,46 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="K17" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="L17" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="M17" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="N17" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="O17" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18">
@@ -1673,46 +1763,140 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G18" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="H18" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="J18" t="s">
+        <v>197</v>
+      </c>
+      <c r="K18" t="s">
+        <v>217</v>
+      </c>
+      <c r="L18" t="s">
+        <v>237</v>
+      </c>
+      <c r="M18" t="s">
+        <v>257</v>
+      </c>
+      <c r="N18" t="s">
+        <v>277</v>
+      </c>
+      <c r="O18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" t="s">
+        <v>218</v>
+      </c>
+      <c r="L19" t="s">
+        <v>238</v>
+      </c>
+      <c r="M19" t="s">
+        <v>258</v>
+      </c>
+      <c r="N19" t="s">
+        <v>278</v>
+      </c>
+      <c r="O19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" t="s">
         <v>179</v>
       </c>
-      <c r="K18" t="s">
-        <v>197</v>
-      </c>
-      <c r="L18" t="s">
-        <v>215</v>
-      </c>
-      <c r="M18" t="s">
-        <v>233</v>
-      </c>
-      <c r="N18" t="s">
-        <v>251</v>
-      </c>
-      <c r="O18" t="s">
-        <v>269</v>
+      <c r="J20" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" t="s">
+        <v>219</v>
+      </c>
+      <c r="L20" t="s">
+        <v>239</v>
+      </c>
+      <c r="M20" t="s">
+        <v>259</v>
+      </c>
+      <c r="N20" t="s">
+        <v>279</v>
+      </c>
+      <c r="O20" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/05-analisis-datos-2/tablas/balance_tables.xlsx
+++ b/outputs/05-analisis-datos-2/tablas/balance_tables.xlsx
@@ -96,31 +96,31 @@
     <t>[3]</t>
   </si>
   <si>
-    <t>2958</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2958</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2958</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2958</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>1455</t>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>1532</t>
   </si>
   <si>
     <t>[3]</t>
@@ -144,13 +144,373 @@
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>0.486</t>
-  </si>
-  <si>
-    <t>[0.006]</t>
-  </si>
-  <si>
-    <t>0.238</t>
+    <t>0.494</t>
+  </si>
+  <si>
+    <t>[0.012]</t>
+  </si>
+  <si>
+    <t>0.245</t>
+  </si>
+  <si>
+    <t>[0.013]</t>
+  </si>
+  <si>
+    <t>10.420</t>
+  </si>
+  <si>
+    <t>[0.062]</t>
+  </si>
+  <si>
+    <t>25.710</t>
+  </si>
+  <si>
+    <t>[0.061]</t>
+  </si>
+  <si>
+    <t>17.151</t>
+  </si>
+  <si>
+    <t>[0.181]</t>
+  </si>
+  <si>
+    <t>8.558</t>
+  </si>
+  <si>
+    <t>[0.239]</t>
+  </si>
+  <si>
+    <t>133.050</t>
+  </si>
+  <si>
+    <t>[1.550]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>N/[Clusters]</t>
+  </si>
+  <si>
+    <t>6108</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>6108</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3028</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3028</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3028</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3028</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>1511</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>Contracts</t>
+  </si>
+  <si>
+    <t>Mean/SE</t>
+  </si>
+  <si>
+    <t>0.496</t>
+  </si>
+  <si>
+    <t>[0.012]</t>
+  </si>
+  <si>
+    <t>0.242</t>
+  </si>
+  <si>
+    <t>[0.016]</t>
+  </si>
+  <si>
+    <t>10.652</t>
+  </si>
+  <si>
+    <t>[0.047]</t>
+  </si>
+  <si>
+    <t>25.579</t>
+  </si>
+  <si>
+    <t>[0.207]</t>
+  </si>
+  <si>
+    <t>17.420</t>
+  </si>
+  <si>
+    <t>[0.129]</t>
+  </si>
+  <si>
+    <t>8.159</t>
+  </si>
+  <si>
+    <t>[0.136]</t>
+  </si>
+  <si>
+    <t>131.964</t>
+  </si>
+  <si>
+    <t>[7.343]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>N/[Clusters]</t>
+  </si>
+  <si>
+    <t>6096</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>6096</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3156</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3156</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3156</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3156</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>1587</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Mean/SE</t>
+  </si>
+  <si>
+    <t>0.518</t>
+  </si>
+  <si>
+    <t>[0.002]</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>[0.009]</t>
+  </si>
+  <si>
+    <t>10.355</t>
+  </si>
+  <si>
+    <t>[0.129]</t>
+  </si>
+  <si>
+    <t>25.552</t>
+  </si>
+  <si>
+    <t>[0.153]</t>
+  </si>
+  <si>
+    <t>17.183</t>
+  </si>
+  <si>
+    <t>[0.042]</t>
+  </si>
+  <si>
+    <t>8.369</t>
+  </si>
+  <si>
+    <t>[0.126]</t>
+  </si>
+  <si>
+    <t>130.560</t>
+  </si>
+  <si>
+    <t>[3.976]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>N/[Clusters]</t>
+  </si>
+  <si>
+    <t>6120</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>6120</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2986</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2986</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2986</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2986</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>1478</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(4)</t>
+  </si>
+  <si>
+    <t>Info + Contracts</t>
+  </si>
+  <si>
+    <t>Mean/SE</t>
+  </si>
+  <si>
+    <t>0.488</t>
+  </si>
+  <si>
+    <t>[0.003]</t>
+  </si>
+  <si>
+    <t>0.242</t>
   </si>
   <si>
     <t>[0.005]</t>
@@ -159,391 +519,31 @@
     <t>10.476</t>
   </si>
   <si>
-    <t>[0.037]</t>
-  </si>
-  <si>
-    <t>25.491</t>
-  </si>
-  <si>
-    <t>[0.069]</t>
-  </si>
-  <si>
-    <t>17.533</t>
-  </si>
-  <si>
-    <t>[0.180]</t>
-  </si>
-  <si>
-    <t>7.958</t>
-  </si>
-  <si>
-    <t>[0.180]</t>
-  </si>
-  <si>
-    <t>125.171</t>
-  </si>
-  <si>
-    <t>[4.957]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>N/[Clusters]</t>
-  </si>
-  <si>
-    <t>6108</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>6108</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2988</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2988</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2988</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2988</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>1496</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(2)</t>
-  </si>
-  <si>
-    <t>Contracts</t>
-  </si>
-  <si>
-    <t>Mean/SE</t>
-  </si>
-  <si>
-    <t>0.489</t>
-  </si>
-  <si>
-    <t>[0.004]</t>
-  </si>
-  <si>
-    <t>0.227</t>
-  </si>
-  <si>
-    <t>[0.003]</t>
-  </si>
-  <si>
-    <t>10.416</t>
-  </si>
-  <si>
-    <t>[0.015]</t>
-  </si>
-  <si>
-    <t>25.566</t>
-  </si>
-  <si>
-    <t>[0.113]</t>
-  </si>
-  <si>
-    <t>17.303</t>
-  </si>
-  <si>
-    <t>[0.187]</t>
-  </si>
-  <si>
-    <t>8.263</t>
-  </si>
-  <si>
-    <t>[0.130]</t>
-  </si>
-  <si>
-    <t>132.724</t>
-  </si>
-  <si>
-    <t>[1.429]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>N/[Clusters]</t>
-  </si>
-  <si>
-    <t>6096</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>6096</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2944</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2944</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2944</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2944</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>1442</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(3)</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Mean/SE</t>
-  </si>
-  <si>
-    <t>0.483</t>
-  </si>
-  <si>
-    <t>[0.010]</t>
-  </si>
-  <si>
-    <t>0.240</t>
-  </si>
-  <si>
-    <t>[0.009]</t>
-  </si>
-  <si>
-    <t>10.710</t>
-  </si>
-  <si>
-    <t>[0.168]</t>
-  </si>
-  <si>
-    <t>25.289</t>
-  </si>
-  <si>
-    <t>[0.145]</t>
-  </si>
-  <si>
-    <t>17.351</t>
-  </si>
-  <si>
-    <t>[0.068]</t>
-  </si>
-  <si>
-    <t>7.938</t>
-  </si>
-  <si>
-    <t>[0.201]</t>
-  </si>
-  <si>
-    <t>126.690</t>
-  </si>
-  <si>
-    <t>[1.972]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>N/[Clusters]</t>
-  </si>
-  <si>
-    <t>6120</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>6120</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3098</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3098</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3098</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3098</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>1532</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(4)</t>
-  </si>
-  <si>
-    <t>Info + Contracts</t>
-  </si>
-  <si>
-    <t>Mean/SE</t>
-  </si>
-  <si>
-    <t>0.506</t>
-  </si>
-  <si>
-    <t>[0.005]</t>
-  </si>
-  <si>
-    <t>0.255</t>
-  </si>
-  <si>
-    <t>[0.002]</t>
-  </si>
-  <si>
-    <t>10.482</t>
-  </si>
-  <si>
-    <t>[0.111]</t>
-  </si>
-  <si>
-    <t>25.294</t>
-  </si>
-  <si>
-    <t>[0.094]</t>
-  </si>
-  <si>
-    <t>17.204</t>
-  </si>
-  <si>
-    <t>[0.068]</t>
-  </si>
-  <si>
-    <t>8.090</t>
-  </si>
-  <si>
-    <t>[0.070]</t>
-  </si>
-  <si>
-    <t>131.861</t>
-  </si>
-  <si>
-    <t>[2.125]</t>
+    <t>[0.097]</t>
+  </si>
+  <si>
+    <t>25.633</t>
+  </si>
+  <si>
+    <t>[0.230]</t>
+  </si>
+  <si>
+    <t>17.648</t>
+  </si>
+  <si>
+    <t>[0.117]</t>
+  </si>
+  <si>
+    <t>7.985</t>
+  </si>
+  <si>
+    <t>[0.149]</t>
+  </si>
+  <si>
+    <t>130.500</t>
+  </si>
+  <si>
+    <t>[5.568]</t>
   </si>
   <si>
     <t/>
@@ -564,343 +564,343 @@
     <t>(1)-(2)</t>
   </si>
   <si>
-    <t>-0.003</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.011*</t>
+    <t>-0.002</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.232**</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.130</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.269</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.399</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1.085</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>t-test</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>(1)-(3)</t>
+  </si>
+  <si>
+    <t>-0.024*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.006</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.157</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.032</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.189</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2.490</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>t-test</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>(1)-(4)</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.056</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.496**</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.573*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2.550</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>t-test</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>(2)-(3)</t>
+  </si>
+  <si>
+    <t>-0.022</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.009</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.296*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.237</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.210</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1.404</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>t-test</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>(2)-(4)</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.175</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.053</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.227</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.174</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1.464</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>t-test</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>(3)-(4)</t>
+  </si>
+  <si>
+    <t>0.030***</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.121</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.081</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.465***</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.384*</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
     <t>0.060</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.075</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.230</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.305</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-7.553</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>(1)-(3)</t>
-  </si>
-  <si>
-    <t>0.003</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.001</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.234</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.202</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.182</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.020</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-1.519</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>(1)-(4)</t>
-  </si>
-  <si>
-    <t>-0.020**</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.017**</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.007</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.197</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.329</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.132</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-6.690</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>(2)-(3)</t>
-  </si>
-  <si>
-    <t>0.006</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.013</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.294</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.277</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.049</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.325</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>6.034**</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>(2)-(4)</t>
-  </si>
-  <si>
-    <t>-0.017**</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.028***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.067</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.271*</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.098</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.173</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.863</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>(3)-(4)</t>
-  </si>
-  <si>
-    <t>-0.023*</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.015</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.228</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.005</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.147</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.152</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-5.171</t>
   </si>
   <si>
     <t/>

--- a/outputs/05-analisis-datos-2/tablas/balance_tables.xlsx
+++ b/outputs/05-analisis-datos-2/tablas/balance_tables.xlsx
@@ -84,43 +84,43 @@
     <t>N/[Clusters]</t>
   </si>
   <si>
-    <t>6084</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>6084</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>1532</t>
+    <t>6096</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>6096</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3032</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3032</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3032</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3032</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>1493</t>
   </si>
   <si>
     <t>[3]</t>
@@ -144,46 +144,46 @@
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>0.494</t>
-  </si>
-  <si>
-    <t>[0.012]</t>
-  </si>
-  <si>
-    <t>0.245</t>
-  </si>
-  <si>
-    <t>[0.013]</t>
-  </si>
-  <si>
-    <t>10.420</t>
-  </si>
-  <si>
-    <t>[0.062]</t>
-  </si>
-  <si>
-    <t>25.710</t>
-  </si>
-  <si>
-    <t>[0.061]</t>
-  </si>
-  <si>
-    <t>17.151</t>
-  </si>
-  <si>
-    <t>[0.181]</t>
-  </si>
-  <si>
-    <t>8.558</t>
-  </si>
-  <si>
-    <t>[0.239]</t>
-  </si>
-  <si>
-    <t>133.050</t>
-  </si>
-  <si>
-    <t>[1.550]</t>
+    <t>0.497</t>
+  </si>
+  <si>
+    <t>[0.006]</t>
+  </si>
+  <si>
+    <t>0.258</t>
+  </si>
+  <si>
+    <t>[0.011]</t>
+  </si>
+  <si>
+    <t>10.495</t>
+  </si>
+  <si>
+    <t>[0.100]</t>
+  </si>
+  <si>
+    <t>25.223</t>
+  </si>
+  <si>
+    <t>[0.123]</t>
+  </si>
+  <si>
+    <t>17.085</t>
+  </si>
+  <si>
+    <t>[0.234]</t>
+  </si>
+  <si>
+    <t>8.138</t>
+  </si>
+  <si>
+    <t>[0.335]</t>
+  </si>
+  <si>
+    <t>132.427</t>
+  </si>
+  <si>
+    <t>[2.823]</t>
   </si>
   <si>
     <t/>
@@ -204,6 +204,126 @@
     <t>N/[Clusters]</t>
   </si>
   <si>
+    <t>6096</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>6096</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>1554</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>Contracts</t>
+  </si>
+  <si>
+    <t>Mean/SE</t>
+  </si>
+  <si>
+    <t>0.497</t>
+  </si>
+  <si>
+    <t>[0.011]</t>
+  </si>
+  <si>
+    <t>0.246</t>
+  </si>
+  <si>
+    <t>[0.006]</t>
+  </si>
+  <si>
+    <t>10.281</t>
+  </si>
+  <si>
+    <t>[0.059]</t>
+  </si>
+  <si>
+    <t>25.890</t>
+  </si>
+  <si>
+    <t>[0.495]</t>
+  </si>
+  <si>
+    <t>17.501</t>
+  </si>
+  <si>
+    <t>[0.398]</t>
+  </si>
+  <si>
+    <t>8.389</t>
+  </si>
+  <si>
+    <t>[0.155]</t>
+  </si>
+  <si>
+    <t>128.707</t>
+  </si>
+  <si>
+    <t>[4.436]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>N/[Clusters]</t>
+  </si>
+  <si>
     <t>6108</t>
   </si>
   <si>
@@ -216,334 +336,214 @@
     <t>[3]</t>
   </si>
   <si>
-    <t>3028</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3028</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3028</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3028</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>1511</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(2)</t>
-  </si>
-  <si>
-    <t>Contracts</t>
+    <t>3144</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3144</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3144</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3144</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>1590</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>Information</t>
   </si>
   <si>
     <t>Mean/SE</t>
   </si>
   <si>
+    <t>0.515</t>
+  </si>
+  <si>
+    <t>[0.002]</t>
+  </si>
+  <si>
+    <t>0.263</t>
+  </si>
+  <si>
+    <t>[0.009]</t>
+  </si>
+  <si>
+    <t>10.505</t>
+  </si>
+  <si>
+    <t>[0.063]</t>
+  </si>
+  <si>
+    <t>25.609</t>
+  </si>
+  <si>
+    <t>[0.351]</t>
+  </si>
+  <si>
+    <t>17.207</t>
+  </si>
+  <si>
+    <t>[0.277]</t>
+  </si>
+  <si>
+    <t>8.401</t>
+  </si>
+  <si>
+    <t>[0.074]</t>
+  </si>
+  <si>
+    <t>131.657</t>
+  </si>
+  <si>
+    <t>[2.814]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>N/[Clusters]</t>
+  </si>
+  <si>
+    <t>6108</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>6108</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3030</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>1477</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(4)</t>
+  </si>
+  <si>
+    <t>Info + Contracts</t>
+  </si>
+  <si>
+    <t>Mean/SE</t>
+  </si>
+  <si>
     <t>0.496</t>
   </si>
   <si>
-    <t>[0.012]</t>
-  </si>
-  <si>
-    <t>0.242</t>
-  </si>
-  <si>
-    <t>[0.016]</t>
-  </si>
-  <si>
-    <t>10.652</t>
-  </si>
-  <si>
-    <t>[0.047]</t>
-  </si>
-  <si>
-    <t>25.579</t>
-  </si>
-  <si>
-    <t>[0.207]</t>
-  </si>
-  <si>
-    <t>17.420</t>
-  </si>
-  <si>
-    <t>[0.129]</t>
-  </si>
-  <si>
-    <t>8.159</t>
-  </si>
-  <si>
-    <t>[0.136]</t>
-  </si>
-  <si>
-    <t>131.964</t>
-  </si>
-  <si>
-    <t>[7.343]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>N/[Clusters]</t>
-  </si>
-  <si>
-    <t>6096</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>6096</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3156</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3156</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3156</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3156</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>1587</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(3)</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Mean/SE</t>
-  </si>
-  <si>
-    <t>0.518</t>
-  </si>
-  <si>
-    <t>[0.002]</t>
+    <t>[0.001]</t>
   </si>
   <si>
     <t>0.251</t>
   </si>
   <si>
-    <t>[0.009]</t>
-  </si>
-  <si>
-    <t>10.355</t>
-  </si>
-  <si>
-    <t>[0.129]</t>
-  </si>
-  <si>
-    <t>25.552</t>
-  </si>
-  <si>
-    <t>[0.153]</t>
-  </si>
-  <si>
-    <t>17.183</t>
-  </si>
-  <si>
-    <t>[0.042]</t>
-  </si>
-  <si>
-    <t>8.369</t>
-  </si>
-  <si>
-    <t>[0.126]</t>
-  </si>
-  <si>
-    <t>130.560</t>
-  </si>
-  <si>
-    <t>[3.976]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>N/[Clusters]</t>
-  </si>
-  <si>
-    <t>6120</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>6120</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2986</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2986</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2986</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2986</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>1478</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(4)</t>
-  </si>
-  <si>
-    <t>Info + Contracts</t>
-  </si>
-  <si>
-    <t>Mean/SE</t>
-  </si>
-  <si>
-    <t>0.488</t>
-  </si>
-  <si>
-    <t>[0.003]</t>
-  </si>
-  <si>
-    <t>0.242</t>
-  </si>
-  <si>
-    <t>[0.005]</t>
-  </si>
-  <si>
-    <t>10.476</t>
-  </si>
-  <si>
-    <t>[0.097]</t>
-  </si>
-  <si>
-    <t>25.633</t>
-  </si>
-  <si>
-    <t>[0.230]</t>
-  </si>
-  <si>
-    <t>17.648</t>
-  </si>
-  <si>
-    <t>[0.117]</t>
-  </si>
-  <si>
-    <t>7.985</t>
-  </si>
-  <si>
-    <t>[0.149]</t>
-  </si>
-  <si>
-    <t>130.500</t>
-  </si>
-  <si>
-    <t>[5.568]</t>
+    <t>[0.006]</t>
+  </si>
+  <si>
+    <t>10.539</t>
+  </si>
+  <si>
+    <t>[0.100]</t>
+  </si>
+  <si>
+    <t>25.585</t>
+  </si>
+  <si>
+    <t>[0.394]</t>
+  </si>
+  <si>
+    <t>17.606</t>
+  </si>
+  <si>
+    <t>[0.197]</t>
+  </si>
+  <si>
+    <t>7.979</t>
+  </si>
+  <si>
+    <t>[0.236]</t>
+  </si>
+  <si>
+    <t>132.492</t>
+  </si>
+  <si>
+    <t>[1.226]</t>
   </si>
   <si>
     <t/>
@@ -564,43 +564,43 @@
     <t>(1)-(2)</t>
   </si>
   <si>
-    <t>-0.002</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.003</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.232**</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.130</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.269</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.399</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1.085</t>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.214*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.667</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.416</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.251</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>3.719</t>
   </si>
   <si>
     <t/>
@@ -624,43 +624,43 @@
     <t>(1)-(3)</t>
   </si>
   <si>
-    <t>-0.024*</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.006</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.065</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.157</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.032</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.189</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2.490</t>
+    <t>-0.017**</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.005</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.011</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.386</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.123</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.263</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.769</t>
   </si>
   <si>
     <t/>
@@ -684,43 +684,43 @@
     <t>(1)-(4)</t>
   </si>
   <si>
-    <t>0.006</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.003</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.056</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.077</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.496**</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.573*</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2.550</t>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.044</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.362</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.521</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.159</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.065</t>
   </si>
   <si>
     <t/>
@@ -744,43 +744,43 @@
     <t>(2)-(3)</t>
   </si>
   <si>
-    <t>-0.022</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.009</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.296*</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.027</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.237</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.210</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1.404</t>
+    <t>-0.018</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.017</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.224**</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.282</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.294</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.012</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-2.950</t>
   </si>
   <si>
     <t/>
@@ -804,43 +804,43 @@
     <t>(2)-(4)</t>
   </si>
   <si>
-    <t>0.008</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.000</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.175</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.053</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.227</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.174</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1.464</t>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.005</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.258*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.306</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.105</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.410</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-3.785</t>
   </si>
   <si>
     <t/>
@@ -864,43 +864,43 @@
     <t>(3)-(4)</t>
   </si>
   <si>
-    <t>0.030***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.009</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.121</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.081</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.465***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.384*</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.060</t>
+    <t>0.019***</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.034</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.398</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.422</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.835</t>
   </si>
   <si>
     <t/>

--- a/outputs/05-analisis-datos-2/tablas/balance_tables.xlsx
+++ b/outputs/05-analisis-datos-2/tablas/balance_tables.xlsx
@@ -24,13 +24,13 @@
     <t>Variable</t>
   </si>
   <si>
-    <t>Cultivated: Plot P in Season S</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Irrigation: Plot P in Season S</t>
+    <t>Cultivation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Irrigation</t>
   </si>
   <si>
     <t/>
@@ -84,6 +84,246 @@
     <t>N/[Clusters]</t>
   </si>
   <si>
+    <t>6084</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>6084</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>1532</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Mean/SE</t>
+  </si>
+  <si>
+    <t>0.494</t>
+  </si>
+  <si>
+    <t>[0.012]</t>
+  </si>
+  <si>
+    <t>0.245</t>
+  </si>
+  <si>
+    <t>[0.013]</t>
+  </si>
+  <si>
+    <t>10.420</t>
+  </si>
+  <si>
+    <t>[0.062]</t>
+  </si>
+  <si>
+    <t>25.710</t>
+  </si>
+  <si>
+    <t>[0.061]</t>
+  </si>
+  <si>
+    <t>17.151</t>
+  </si>
+  <si>
+    <t>[0.181]</t>
+  </si>
+  <si>
+    <t>8.558</t>
+  </si>
+  <si>
+    <t>[0.239]</t>
+  </si>
+  <si>
+    <t>133.050</t>
+  </si>
+  <si>
+    <t>[1.550]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>N/[Clusters]</t>
+  </si>
+  <si>
+    <t>6108</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>6108</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3028</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3028</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3028</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3028</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>1511</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>Contracts</t>
+  </si>
+  <si>
+    <t>Mean/SE</t>
+  </si>
+  <si>
+    <t>0.496</t>
+  </si>
+  <si>
+    <t>[0.012]</t>
+  </si>
+  <si>
+    <t>0.242</t>
+  </si>
+  <si>
+    <t>[0.016]</t>
+  </si>
+  <si>
+    <t>10.652</t>
+  </si>
+  <si>
+    <t>[0.047]</t>
+  </si>
+  <si>
+    <t>25.579</t>
+  </si>
+  <si>
+    <t>[0.207]</t>
+  </si>
+  <si>
+    <t>17.420</t>
+  </si>
+  <si>
+    <t>[0.129]</t>
+  </si>
+  <si>
+    <t>8.159</t>
+  </si>
+  <si>
+    <t>[0.136]</t>
+  </si>
+  <si>
+    <t>131.964</t>
+  </si>
+  <si>
+    <t>[7.343]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>N/[Clusters]</t>
+  </si>
+  <si>
     <t>6096</t>
   </si>
   <si>
@@ -96,94 +336,94 @@
     <t>[3]</t>
   </si>
   <si>
-    <t>3032</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3032</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3032</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3032</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>1493</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(1)</t>
-  </si>
-  <si>
-    <t>Control</t>
+    <t>3156</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3156</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3156</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>3156</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>1587</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>Information</t>
   </si>
   <si>
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>0.497</t>
-  </si>
-  <si>
-    <t>[0.006]</t>
-  </si>
-  <si>
-    <t>0.258</t>
-  </si>
-  <si>
-    <t>[0.011]</t>
-  </si>
-  <si>
-    <t>10.495</t>
-  </si>
-  <si>
-    <t>[0.100]</t>
-  </si>
-  <si>
-    <t>25.223</t>
-  </si>
-  <si>
-    <t>[0.123]</t>
-  </si>
-  <si>
-    <t>17.085</t>
-  </si>
-  <si>
-    <t>[0.234]</t>
-  </si>
-  <si>
-    <t>8.138</t>
-  </si>
-  <si>
-    <t>[0.335]</t>
-  </si>
-  <si>
-    <t>132.427</t>
-  </si>
-  <si>
-    <t>[2.823]</t>
+    <t>0.518</t>
+  </si>
+  <si>
+    <t>[0.002]</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>[0.009]</t>
+  </si>
+  <si>
+    <t>10.355</t>
+  </si>
+  <si>
+    <t>[0.129]</t>
+  </si>
+  <si>
+    <t>25.552</t>
+  </si>
+  <si>
+    <t>[0.153]</t>
+  </si>
+  <si>
+    <t>17.183</t>
+  </si>
+  <si>
+    <t>[0.042]</t>
+  </si>
+  <si>
+    <t>8.369</t>
+  </si>
+  <si>
+    <t>[0.126]</t>
+  </si>
+  <si>
+    <t>130.560</t>
+  </si>
+  <si>
+    <t>[3.976]</t>
   </si>
   <si>
     <t/>
@@ -204,346 +444,106 @@
     <t>N/[Clusters]</t>
   </si>
   <si>
-    <t>6096</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>6096</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3030</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3030</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3030</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3030</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>1554</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(2)</t>
-  </si>
-  <si>
-    <t>Contracts</t>
+    <t>6120</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>6120</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2986</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2986</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2986</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>2986</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>1478</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>(4)</t>
+  </si>
+  <si>
+    <t>Info + Contracts</t>
   </si>
   <si>
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>0.497</t>
-  </si>
-  <si>
-    <t>[0.011]</t>
-  </si>
-  <si>
-    <t>0.246</t>
-  </si>
-  <si>
-    <t>[0.006]</t>
-  </si>
-  <si>
-    <t>10.281</t>
-  </si>
-  <si>
-    <t>[0.059]</t>
-  </si>
-  <si>
-    <t>25.890</t>
-  </si>
-  <si>
-    <t>[0.495]</t>
-  </si>
-  <si>
-    <t>17.501</t>
-  </si>
-  <si>
-    <t>[0.398]</t>
-  </si>
-  <si>
-    <t>8.389</t>
-  </si>
-  <si>
-    <t>[0.155]</t>
-  </si>
-  <si>
-    <t>128.707</t>
-  </si>
-  <si>
-    <t>[4.436]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>N/[Clusters]</t>
-  </si>
-  <si>
-    <t>6108</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>6108</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3144</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3144</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3144</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3144</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>1590</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(3)</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Mean/SE</t>
-  </si>
-  <si>
-    <t>0.515</t>
-  </si>
-  <si>
-    <t>[0.002]</t>
-  </si>
-  <si>
-    <t>0.263</t>
-  </si>
-  <si>
-    <t>[0.009]</t>
-  </si>
-  <si>
-    <t>10.505</t>
-  </si>
-  <si>
-    <t>[0.063]</t>
-  </si>
-  <si>
-    <t>25.609</t>
-  </si>
-  <si>
-    <t>[0.351]</t>
-  </si>
-  <si>
-    <t>17.207</t>
-  </si>
-  <si>
-    <t>[0.277]</t>
-  </si>
-  <si>
-    <t>8.401</t>
-  </si>
-  <si>
-    <t>[0.074]</t>
-  </si>
-  <si>
-    <t>131.657</t>
-  </si>
-  <si>
-    <t>[2.814]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>N/[Clusters]</t>
-  </si>
-  <si>
-    <t>6108</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>6108</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3030</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3030</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3030</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>3030</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>1477</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(4)</t>
-  </si>
-  <si>
-    <t>Info + Contracts</t>
-  </si>
-  <si>
-    <t>Mean/SE</t>
-  </si>
-  <si>
-    <t>0.496</t>
-  </si>
-  <si>
-    <t>[0.001]</t>
-  </si>
-  <si>
-    <t>0.251</t>
-  </si>
-  <si>
-    <t>[0.006]</t>
-  </si>
-  <si>
-    <t>10.539</t>
-  </si>
-  <si>
-    <t>[0.100]</t>
-  </si>
-  <si>
-    <t>25.585</t>
-  </si>
-  <si>
-    <t>[0.394]</t>
-  </si>
-  <si>
-    <t>17.606</t>
-  </si>
-  <si>
-    <t>[0.197]</t>
-  </si>
-  <si>
-    <t>7.979</t>
-  </si>
-  <si>
-    <t>[0.236]</t>
-  </si>
-  <si>
-    <t>132.492</t>
-  </si>
-  <si>
-    <t>[1.226]</t>
+    <t>0.488</t>
+  </si>
+  <si>
+    <t>[0.003]</t>
+  </si>
+  <si>
+    <t>0.242</t>
+  </si>
+  <si>
+    <t>[0.005]</t>
+  </si>
+  <si>
+    <t>10.476</t>
+  </si>
+  <si>
+    <t>[0.097]</t>
+  </si>
+  <si>
+    <t>25.633</t>
+  </si>
+  <si>
+    <t>[0.230]</t>
+  </si>
+  <si>
+    <t>17.648</t>
+  </si>
+  <si>
+    <t>[0.117]</t>
+  </si>
+  <si>
+    <t>7.985</t>
+  </si>
+  <si>
+    <t>[0.149]</t>
+  </si>
+  <si>
+    <t>130.500</t>
+  </si>
+  <si>
+    <t>[5.568]</t>
   </si>
   <si>
     <t/>
@@ -564,43 +564,283 @@
     <t>(1)-(2)</t>
   </si>
   <si>
+    <t>-0.002</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.232**</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.130</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.269</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.399</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1.085</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>t-test</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>(1)-(3)</t>
+  </si>
+  <si>
+    <t>-0.024*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.006</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.157</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.032</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.189</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2.490</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>t-test</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>(1)-(4)</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.056</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.496**</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.573*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2.550</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>t-test</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>(2)-(3)</t>
+  </si>
+  <si>
+    <t>-0.022</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.009</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.296*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.237</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.210</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1.404</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>t-test</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>(2)-(4)</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>0.000</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0.012</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.214*</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.667</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.416</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.251</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>3.719</t>
+    <t>0.175</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.053</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.227</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.174</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1.464</t>
   </si>
   <si>
     <t/>
@@ -621,286 +861,46 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>(1)-(3)</t>
-  </si>
-  <si>
-    <t>-0.017**</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.005</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.011</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.386</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.123</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.263</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.769</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>(1)-(4)</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.007</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.044</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.362</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.521</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.159</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.065</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>(2)-(3)</t>
-  </si>
-  <si>
-    <t>-0.018</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.017</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.224**</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.282</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.294</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.012</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-2.950</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>(2)-(4)</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.005</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.258*</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.306</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.105</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.410</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-3.785</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
     <t>(3)-(4)</t>
   </si>
   <si>
-    <t>0.019***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.012</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.034</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.024</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.398</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.422</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.835</t>
+    <t>0.030***</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.121</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.081</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>-0.465***</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.384*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.060</t>
   </si>
   <si>
     <t/>
